--- a/gameData/shared/DragonEyrie.xlsx
+++ b/gameData/shared/DragonEyrie.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="2580" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="10"/>
+    <workbookView xWindow="5440" yWindow="2420" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="crown" sheetId="53" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <sheet name="dragonSkill" sheetId="58" r:id="rId10"/>
     <sheet name="fightFix" sheetId="61" r:id="rId11"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId12"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crown!$A$1:$D$21</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
@@ -3391,21 +3388,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="normal"/>
-      <sheetName val="special"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4885,7 +4867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -8969,8 +8951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9049,7 +9031,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <v>128</v>

--- a/gameData/shared/DragonEyrie.xlsx
+++ b/gameData/shared/DragonEyrie.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="2420" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="7"/>
+    <workbookView xWindow="9840" yWindow="2080" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="crown" sheetId="53" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="109">
   <si>
     <t>INT_strength</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -471,6 +471,14 @@
   </si>
   <si>
     <t>FLOAT_effect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_perLevelLeadership</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_initLeadership</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -652,7 +660,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1314">
+  <cellStyleXfs count="1320">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -667,6 +675,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1999,7 +2013,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1314">
+  <cellStyles count="1320">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2659,6 +2673,9 @@
     <cellStyle name="超链接" xfId="1308" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1310" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1318" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3311,6 +3328,9 @@
     <cellStyle name="访问过的超链接" xfId="1309" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1311" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1319" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -8949,10 +8969,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8960,15 +8980,15 @@
     <col min="1" max="1" width="17.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="20.6640625" style="2"/>
-    <col min="7" max="7" width="15.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="46.5" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="20.6640625" style="2"/>
+    <col min="4" max="5" width="17.83203125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" style="2"/>
+    <col min="8" max="9" width="15.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="46.5" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -8982,22 +9002,28 @@
         <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -9022,8 +9048,14 @@
       <c r="H2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -9037,19 +9069,25 @@
         <v>128</v>
       </c>
       <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>6</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>20</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -9063,22 +9101,28 @@
         <v>256</v>
       </c>
       <c r="E4" s="2">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
         <v>4</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>12</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>60</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
+        <v>60</v>
+      </c>
+      <c r="J4" s="2">
         <v>180</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -9092,22 +9136,28 @@
         <v>512</v>
       </c>
       <c r="E5" s="2">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2">
         <v>6</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>18</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>120</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
+        <v>120</v>
+      </c>
+      <c r="J5" s="2">
         <v>360</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -9121,22 +9171,28 @@
         <v>1024</v>
       </c>
       <c r="E6" s="2">
+        <v>80</v>
+      </c>
+      <c r="F6" s="2">
         <v>8</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>24</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>200</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
+        <v>200</v>
+      </c>
+      <c r="J6" s="2">
         <v>580</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -9150,621 +9206,707 @@
         <v>5120</v>
       </c>
       <c r="E7" s="2">
+        <v>160</v>
+      </c>
+      <c r="F7" s="2">
         <v>10</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>30</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>300</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
+        <v>300</v>
+      </c>
+      <c r="J7" s="2">
         <v>880</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="A22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1">
       <c r="A23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="A24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="A25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="A26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" ht="20" customHeight="1">
       <c r="A27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" ht="20" customHeight="1">
       <c r="A28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" ht="20" customHeight="1">
       <c r="A29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" ht="20" customHeight="1">
       <c r="A30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="20" customHeight="1">
       <c r="A31" s="4"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" ht="20" customHeight="1">
       <c r="A32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" ht="20" customHeight="1">
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" ht="20" customHeight="1">
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="4"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" ht="20" customHeight="1">
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" ht="20" customHeight="1">
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" ht="20" customHeight="1">
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" ht="20" customHeight="1">
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" ht="20" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6" ht="20" customHeight="1">
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" ht="20" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" ht="20" customHeight="1">
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" ht="20" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="1:6" ht="20" customHeight="1">
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" ht="20" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:6" ht="20" customHeight="1">
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" ht="20" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" ht="20" customHeight="1">
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" ht="20" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="1:6" ht="20" customHeight="1">
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" ht="20" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="1:6" ht="20" customHeight="1">
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" ht="20" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:6" ht="20" customHeight="1">
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" ht="20" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="1:6" ht="20" customHeight="1">
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" ht="20" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="1:6" ht="20" customHeight="1">
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" ht="20" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="1:6" ht="20" customHeight="1">
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" ht="20" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="1:6" ht="20" customHeight="1">
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" ht="20" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:6" ht="20" customHeight="1">
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" ht="20" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="1:6" ht="20" customHeight="1">
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" ht="20" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="1:6" ht="20" customHeight="1">
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" ht="20" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="1:6" ht="20" customHeight="1">
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" ht="20" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="1:6" ht="20" customHeight="1">
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" ht="20" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="1:6" ht="20" customHeight="1">
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" ht="20" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="1:6" ht="20" customHeight="1">
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" ht="20" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="1:6" ht="20" customHeight="1">
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" ht="20" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="1:6" ht="20" customHeight="1">
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" ht="20" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="1:6" ht="20" customHeight="1">
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" ht="20" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
-    </row>
-    <row r="61" spans="1:6" ht="20" customHeight="1">
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" ht="20" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="1:6" ht="20" customHeight="1">
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" ht="20" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
-    </row>
-    <row r="63" spans="1:6" ht="20" customHeight="1">
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" ht="20" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="1:6" ht="20" customHeight="1">
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" ht="20" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="1:6" ht="20" customHeight="1">
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7" ht="20" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-    </row>
-    <row r="66" spans="1:6" ht="20" customHeight="1">
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7" ht="20" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-    </row>
-    <row r="67" spans="1:6" ht="20" customHeight="1">
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" ht="20" customHeight="1">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="1:6" ht="20" customHeight="1">
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" ht="20" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="1:6" ht="20" customHeight="1">
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:7" ht="20" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
-    </row>
-    <row r="70" spans="1:6" ht="20" customHeight="1">
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" ht="20" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
-    </row>
-    <row r="71" spans="1:6" ht="20" customHeight="1">
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" ht="20" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
-    </row>
-    <row r="72" spans="1:6" ht="20" customHeight="1">
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" ht="20" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
-    </row>
-    <row r="73" spans="1:6" ht="20" customHeight="1">
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" ht="20" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
-    </row>
-    <row r="74" spans="1:6" ht="20" customHeight="1">
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:7" ht="20" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
-    </row>
-    <row r="75" spans="1:6" ht="20" customHeight="1">
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:7" ht="20" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
-    </row>
-    <row r="76" spans="1:6" ht="20" customHeight="1">
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:7" ht="20" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
-    </row>
-    <row r="77" spans="1:6" ht="20" customHeight="1">
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7" ht="20" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
-    </row>
-    <row r="78" spans="1:6" ht="20" customHeight="1">
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:7" ht="20" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
-    </row>
-    <row r="79" spans="1:6" ht="20" customHeight="1">
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:7" ht="20" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
-    </row>
-    <row r="80" spans="1:6" ht="20" customHeight="1">
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:7" ht="20" customHeight="1">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
-    </row>
-    <row r="81" spans="1:6" ht="20" customHeight="1">
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="1:7" ht="20" customHeight="1">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
-    </row>
-    <row r="82" spans="1:6" ht="20" customHeight="1">
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7" ht="20" customHeight="1">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
-    </row>
-    <row r="83" spans="1:6" ht="20" customHeight="1">
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:7" ht="20" customHeight="1">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="1:6" ht="20" customHeight="1">
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="1:7" ht="20" customHeight="1">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
-    </row>
-    <row r="85" spans="1:6" ht="20" customHeight="1">
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="1:7" ht="20" customHeight="1">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
-    </row>
-    <row r="86" spans="1:6" ht="20" customHeight="1">
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="1:7" ht="20" customHeight="1">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
-    </row>
-    <row r="87" spans="1:6" ht="20" customHeight="1">
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="1:7" ht="20" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
-    </row>
-    <row r="88" spans="1:6" ht="20" customHeight="1">
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="1:7" ht="20" customHeight="1">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
-    </row>
-    <row r="89" spans="1:6" ht="20" customHeight="1">
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" spans="1:7" ht="20" customHeight="1">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
-    </row>
-    <row r="90" spans="1:6" ht="20" customHeight="1">
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="1:7" ht="20" customHeight="1">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
-    </row>
-    <row r="91" spans="1:6" ht="20" customHeight="1">
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="1:7" ht="20" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
-    </row>
-    <row r="92" spans="1:6" ht="20" customHeight="1">
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" spans="1:7" ht="20" customHeight="1">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
-    </row>
-    <row r="93" spans="1:6" ht="20" customHeight="1">
+      <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="1:7" ht="20" customHeight="1">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
-    </row>
-    <row r="94" spans="1:6" ht="20" customHeight="1">
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" spans="1:7" ht="20" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
-    </row>
-    <row r="95" spans="1:6" ht="20" customHeight="1">
+      <c r="G94" s="5"/>
+    </row>
+    <row r="95" spans="1:7" ht="20" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
-    </row>
-    <row r="96" spans="1:6" ht="20" customHeight="1">
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="1:7" ht="20" customHeight="1">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
-    </row>
-    <row r="97" spans="1:6" ht="20" customHeight="1">
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="1:7" ht="20" customHeight="1">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
-    </row>
-    <row r="98" spans="1:6" ht="20" customHeight="1">
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="1:7" ht="20" customHeight="1">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
-    </row>
-    <row r="99" spans="1:6" ht="20" customHeight="1">
+      <c r="G98" s="5"/>
+    </row>
+    <row r="99" spans="1:7" ht="20" customHeight="1">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
-    </row>
-    <row r="100" spans="1:6" ht="20" customHeight="1">
+      <c r="G99" s="5"/>
+    </row>
+    <row r="100" spans="1:7" ht="20" customHeight="1">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
-    </row>
-    <row r="101" spans="1:6" ht="20" customHeight="1">
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:7" ht="20" customHeight="1">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -9783,7 +9925,7 @@
   <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
